--- a/pa-temp-fix-system.com/php/export/sp/close_adgroup_with_open_new_kw_ads.xlsx
+++ b/pa-temp-fix-system.com/php/export/sp/close_adgroup_with_open_new_kw_ads.xlsx
@@ -21874,8 +21874,8 @@
   </sheetPr>
   <dimension ref="A1:H2526"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1105" sqref="E1105"/>
+    <sheetView tabSelected="1" topLeftCell="A1281" workbookViewId="0">
+      <selection activeCell="B502" sqref="B502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.83703703703704" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
